--- a/Data Mix/ResultatExcel/Auvergne.xlsx
+++ b/Data Mix/ResultatExcel/Auvergne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>14455649</v>
       </c>
       <c r="D2" t="n">
+        <v>26162142</v>
+      </c>
+      <c r="E2" t="n">
         <v>565977</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>19264589</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>130835</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>27494</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>6070182</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>103065</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>28060897</v>
       </c>
       <c r="D3" t="n">
+        <v>49108250</v>
+      </c>
+      <c r="E3" t="n">
         <v>1041723</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>35881404</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>261844</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>69149</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>11668247</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>185883</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>41354485</v>
       </c>
       <c r="D4" t="n">
+        <v>71332736</v>
+      </c>
+      <c r="E4" t="n">
         <v>1479250</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>52225261</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>386160</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>137402</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>16817157</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>287506</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>52284110</v>
       </c>
       <c r="D5" t="n">
+        <v>92364933</v>
+      </c>
+      <c r="E5" t="n">
         <v>1558051</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>67032841</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>496538</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>216056</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>22697817</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>363630</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>62531780</v>
       </c>
       <c r="D6" t="n">
+        <v>115230667</v>
+      </c>
+      <c r="E6" t="n">
         <v>1602107</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>82080549</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>608807</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>317876</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>30165609</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>455719</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>71761272</v>
       </c>
       <c r="D7" t="n">
+        <v>134689936</v>
+      </c>
+      <c r="E7" t="n">
         <v>1674090</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>94647592</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>737768</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>437921</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>36649636</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>542929</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>81463849</v>
       </c>
       <c r="D8" t="n">
+        <v>152957434</v>
+      </c>
+      <c r="E8" t="n">
         <v>1732142</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>106724025</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>808650</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>575799</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>42489764</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>627054</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>90045022</v>
       </c>
       <c r="D9" t="n">
+        <v>170483147</v>
+      </c>
+      <c r="E9" t="n">
         <v>1793114</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>119672063</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>901698</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>703654</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>46691412</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>721206</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>99190197</v>
       </c>
       <c r="D10" t="n">
+        <v>186924871</v>
+      </c>
+      <c r="E10" t="n">
         <v>1880636</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>132136824</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1000798</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>799507</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>50295381</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>811725</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>109305404</v>
       </c>
       <c r="D11" t="n">
+        <v>204605851</v>
+      </c>
+      <c r="E11" t="n">
         <v>1962995</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>144825155</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1161318</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>859511</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>54906786</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>890086</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>121606407</v>
       </c>
       <c r="D12" t="n">
+        <v>225170762</v>
+      </c>
+      <c r="E12" t="n">
         <v>2270672</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>158986070</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1314102</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>892851</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>60703151</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1003916</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>135207267</v>
       </c>
       <c r="D13" t="n">
+        <v>249635825</v>
+      </c>
+      <c r="E13" t="n">
         <v>2598099</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>177772378</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1471095</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>936885</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>65735742</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1121626</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>907266339</v>
       </c>
       <c r="D14" t="n">
+        <v>1678666554</v>
+      </c>
+      <c r="E14" t="n">
         <v>20158856</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1191248751</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>9279613</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>5974105</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>444890884</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>7114345</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>148491272</v>
       </c>
       <c r="D15" t="n">
+        <v>275619968</v>
+      </c>
+      <c r="E15" t="n">
         <v>2876932</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>196918255</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1621032</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>973921</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>71948491</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1281337</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>160434063</v>
       </c>
       <c r="D16" t="n">
+        <v>298254370</v>
+      </c>
+      <c r="E16" t="n">
         <v>3126130</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>213126367</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1781475</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1027258</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>77760344</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1432796</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>172303162</v>
       </c>
       <c r="D17" t="n">
+        <v>319923655</v>
+      </c>
+      <c r="E17" t="n">
         <v>3405937</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>228546215</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1922535</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1146328</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>83306792</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1595848</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>182497095</v>
       </c>
       <c r="D18" t="n">
+        <v>338176508</v>
+      </c>
+      <c r="E18" t="n">
         <v>3456845</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>241843328</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2037971</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1276514</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>87867176</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1694674</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>192127310</v>
       </c>
       <c r="D19" t="n">
+        <v>357036287</v>
+      </c>
+      <c r="E19" t="n">
         <v>3500769</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>255181751</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2217482</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1422712</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>92902533</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1811040</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>201287262</v>
       </c>
       <c r="D20" t="n">
+        <v>374407632</v>
+      </c>
+      <c r="E20" t="n">
         <v>3531302</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>267783518</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2327731</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1595187</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>97265015</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1904879</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>210856104</v>
       </c>
       <c r="D21" t="n">
+        <v>393306790</v>
+      </c>
+      <c r="E21" t="n">
         <v>3582455</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>280536287</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2435313</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1731819</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>103004713</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>2016203</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>219384939</v>
       </c>
       <c r="D22" t="n">
+        <v>411371835</v>
+      </c>
+      <c r="E22" t="n">
         <v>3630942</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>293241125</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>2512277</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>1884360</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>107967978</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>2135153</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>228748726</v>
       </c>
       <c r="D23" t="n">
+        <v>429809737</v>
+      </c>
+      <c r="E23" t="n">
         <v>3710964</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>308111819</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2609519</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>2021076</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>111104476</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>2251883</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>238858685</v>
       </c>
       <c r="D24" t="n">
+        <v>448191132</v>
+      </c>
+      <c r="E24" t="n">
         <v>3861988</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>322782537</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>2714775</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>2123235</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>114324864</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>2383733</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>250089267</v>
       </c>
       <c r="D25" t="n">
+        <v>468080749</v>
+      </c>
+      <c r="E25" t="n">
         <v>4278611</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>337450822</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>2850016</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>2173606</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>118772695</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>2554999</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>263423387</v>
       </c>
       <c r="D26" t="n">
+        <v>489433200</v>
+      </c>
+      <c r="E26" t="n">
         <v>4767950</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>353439799</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>2999905</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>2209180</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>123290689</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>2725677</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>4283033950</v>
       </c>
       <c r="D27" t="n">
+        <v>7960944971</v>
+      </c>
+      <c r="E27" t="n">
         <v>84048537</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>5681459325</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>46589257</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>31533406</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>2079297534</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>38016912</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>277613094</v>
       </c>
       <c r="D28" t="n">
+        <v>514795118</v>
+      </c>
+      <c r="E28" t="n">
         <v>5269060</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>372666378</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>3141328</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>2258702</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>128587067</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>2872583</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>290943867</v>
       </c>
       <c r="D29" t="n">
+        <v>538240622</v>
+      </c>
+      <c r="E29" t="n">
         <v>5917015</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>389568265</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>3273639</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>2324834</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>134154276</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>3002593</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>303612744</v>
       </c>
       <c r="D30" t="n">
+        <v>561094116</v>
+      </c>
+      <c r="E30" t="n">
         <v>6429126</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>406046662</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>3423623</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>2440026</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>139603932</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>3150747</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>314115468</v>
       </c>
       <c r="D31" t="n">
+        <v>581273036</v>
+      </c>
+      <c r="E31" t="n">
         <v>6689401</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>420589804</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>3556185</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>2603604</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>144559690</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>3274352</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>323728820</v>
       </c>
       <c r="D32" t="n">
+        <v>601535097</v>
+      </c>
+      <c r="E32" t="n">
         <v>6758236</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>434503251</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3728849</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>2787024</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>150353105</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>3404632</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>333340682</v>
       </c>
       <c r="D33" t="n">
+        <v>621613672</v>
+      </c>
+      <c r="E33" t="n">
         <v>6849521</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>448895535</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>3817481</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>2989615</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>155539263</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>3522257</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>343486528</v>
       </c>
       <c r="D34" t="n">
+        <v>640996797</v>
+      </c>
+      <c r="E34" t="n">
         <v>7083546</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>463690675</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>3931737</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>3202484</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>159425886</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>3662469</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>352367631</v>
       </c>
       <c r="D35" t="n">
+        <v>660376334</v>
+      </c>
+      <c r="E35" t="n">
         <v>7166359</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>479377091</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>4042418</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>3385788</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>162605133</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>3799545</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>361877345</v>
       </c>
       <c r="D36" t="n">
+        <v>676399255</v>
+      </c>
+      <c r="E36" t="n">
         <v>7396925</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>491708273</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>4184342</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>3532586</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>165636547</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>3940582</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>373001543</v>
       </c>
       <c r="D37" t="n">
+        <v>693945115</v>
+      </c>
+      <c r="E37" t="n">
         <v>7758200</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>504972620</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>4309403</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>3630389</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>169209516</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>4064987</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>384546567</v>
       </c>
       <c r="D38" t="n">
+        <v>712432036</v>
+      </c>
+      <c r="E38" t="n">
         <v>8357991</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>519347997</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>4459624</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>3710511</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>172317540</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>4238373</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>396977865</v>
       </c>
       <c r="D39" t="n">
+        <v>732451110</v>
+      </c>
+      <c r="E39" t="n">
         <v>8871024</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>535093490</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>4598991</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>3777914</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>175691998</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>4417693</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>12621680054</v>
       </c>
       <c r="D40" t="n">
+        <v>23457042250</v>
+      </c>
+      <c r="E40" t="n">
         <v>252643478</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>16829378691</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139646134</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>99710289</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>6016279021</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>119384637</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>410762014</v>
       </c>
       <c r="D41" t="n">
+        <v>756247719</v>
+      </c>
+      <c r="E41" t="n">
         <v>9533546</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>552620192</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>4768991</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>3830830</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>180893794</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>4600366</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>423686157</v>
       </c>
       <c r="D42" t="n">
+        <v>779642180</v>
+      </c>
+      <c r="E42" t="n">
         <v>9978124</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>569039396</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>4949686</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>3897457</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>187005280</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>4772237</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>436948296</v>
       </c>
       <c r="D43" t="n">
+        <v>801299632</v>
+      </c>
+      <c r="E43" t="n">
         <v>10523330</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>584304597</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>5130621</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>4024434</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>192360486</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>4956164</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>447770042</v>
       </c>
       <c r="D44" t="n">
+        <v>820538358</v>
+      </c>
+      <c r="E44" t="n">
         <v>10684206</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>597512894</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>5299552</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>4175475</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>197752562</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>5113669</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>457691476</v>
       </c>
       <c r="D45" t="n">
+        <v>840098361</v>
+      </c>
+      <c r="E45" t="n">
         <v>10812138</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>610813138</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5493285</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>4356415</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>203366494</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>5256891</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>467015888</v>
       </c>
       <c r="D46" t="n">
+        <v>857314934</v>
+      </c>
+      <c r="E46" t="n">
         <v>10999306</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>620917141</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>5584704</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>4544806</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>209867892</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>5401085</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>476618455</v>
       </c>
       <c r="D47" t="n">
+        <v>873648486</v>
+      </c>
+      <c r="E47" t="n">
         <v>11225467</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>631343550</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>5692313</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>4759049</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>215074337</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>5553770</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>485456910</v>
       </c>
       <c r="D48" t="n">
+        <v>887204266</v>
+      </c>
+      <c r="E48" t="n">
         <v>11396642</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>640659647</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>5794013</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>4973683</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>218666080</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>5714201</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>494848953</v>
       </c>
       <c r="D49" t="n">
+        <v>900689769</v>
+      </c>
+      <c r="E49" t="n">
         <v>11730087</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>650375256</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>5895115</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>5135979</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>221698339</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>5854993</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>505710376</v>
       </c>
       <c r="D50" t="n">
+        <v>916073994</v>
+      </c>
+      <c r="E50" t="n">
         <v>12343613</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>661897665</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>6024026</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>5280015</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>224546367</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>5982308</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>517853400</v>
       </c>
       <c r="D51" t="n">
+        <v>931387745</v>
+      </c>
+      <c r="E51" t="n">
         <v>13178025</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>672026306</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>6192946</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>5346039</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>228476206</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>6168223</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>532070942</v>
       </c>
       <c r="D52" t="n">
+        <v>949415740</v>
+      </c>
+      <c r="E52" t="n">
         <v>14112689</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>684954811</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>6314606</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>5420416</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>232253694</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>6359524</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>30899793017</v>
       </c>
       <c r="D53" t="n">
+        <v>57227645684</v>
+      </c>
+      <c r="E53" t="n">
         <v>641804129</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>41135221975</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>346432126</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>255165176</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>14544519573</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>304502705</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>548054762</v>
       </c>
       <c r="D54" t="n">
+        <v>971441673</v>
+      </c>
+      <c r="E54" t="n">
         <v>14940287</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>701329773</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>6491022</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>5482350</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>236665759</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>6532482</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>560186511</v>
       </c>
       <c r="D55" t="n">
+        <v>990859818</v>
+      </c>
+      <c r="E55" t="n">
         <v>15634376</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>715850529</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>6693249</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>5570722</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>240422828</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>6688114</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>572104280</v>
       </c>
       <c r="D56" t="n">
+        <v>1013166976</v>
+      </c>
+      <c r="E56" t="n">
         <v>16221805</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>731738151</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>6872760</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>5711743</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>245760321</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>6862196</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>582421720</v>
       </c>
       <c r="D57" t="n">
+        <v>1031613719</v>
+      </c>
+      <c r="E57" t="n">
         <v>16535259</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>745972058</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>7055760</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>5913277</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>249144320</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>6993045</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>592405744</v>
       </c>
       <c r="D58" t="n">
+        <v>1048780072</v>
+      </c>
+      <c r="E58" t="n">
         <v>16787667</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>757514972</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7205092</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>6125128</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>254029211</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>7118002</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>601930170</v>
       </c>
       <c r="D59" t="n">
+        <v>1064924638</v>
+      </c>
+      <c r="E59" t="n">
         <v>16840555</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>768260686</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>7318918</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>6350165</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>258906260</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>7248054</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>611647160</v>
       </c>
       <c r="D60" t="n">
+        <v>1082371394</v>
+      </c>
+      <c r="E60" t="n">
         <v>16884877</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>781434151</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>7457602</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>6566875</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>262614628</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>7413261</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>620649654</v>
       </c>
       <c r="D61" t="n">
+        <v>1100541200</v>
+      </c>
+      <c r="E61" t="n">
         <v>16980443</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>795779559</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>7568068</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>6777324</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>265877807</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>7557999</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>630171710</v>
       </c>
       <c r="D62" t="n">
+        <v>1120183204</v>
+      </c>
+      <c r="E62" t="n">
         <v>17162832</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>812272029</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>7678001</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>6934570</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>268444360</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>7691412</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>640437385</v>
       </c>
       <c r="D63" t="n">
+        <v>1134587013</v>
+      </c>
+      <c r="E63" t="n">
         <v>17679520</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>823423909</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>7850617</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>7078353</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>270706384</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>7848230</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>653055270</v>
       </c>
       <c r="D64" t="n">
+        <v>1147821280</v>
+      </c>
+      <c r="E64" t="n">
         <v>18385023</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>831976057</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>8073173</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>7154387</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>274195151</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>8037489</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>667464578</v>
       </c>
       <c r="D65" t="n">
+        <v>1166531182</v>
+      </c>
+      <c r="E65" t="n">
         <v>19018390</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>844846847</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>8331029</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>7196647</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>278901560</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>8236709</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>69080114978</v>
       </c>
       <c r="D66" t="n">
+        <v>127328113537</v>
+      </c>
+      <c r="E66" t="n">
         <v>1486679292</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>91580842671</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>781459543</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>587191893</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>32194707735</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>697232403</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>680941100</v>
       </c>
       <c r="D67" t="n">
+        <v>1190391231</v>
+      </c>
+      <c r="E67" t="n">
         <v>19391320</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>861862401</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>8610574</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>7240605</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>284852463</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>8433868</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>694704753</v>
       </c>
       <c r="D68" t="n">
+        <v>1211439437</v>
+      </c>
+      <c r="E68" t="n">
         <v>19981399</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>876093624</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>8785299</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>7322003</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>290643992</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>8613120</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>708162250</v>
       </c>
       <c r="D69" t="n">
+        <v>1232581572</v>
+      </c>
+      <c r="E69" t="n">
         <v>20395777</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>890619788</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>9029843</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>7466265</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>296270882</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>8799017</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>718417716</v>
       </c>
       <c r="D70" t="n">
+        <v>1251417242</v>
+      </c>
+      <c r="E70" t="n">
         <v>20425636</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>903293528</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>9235134</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>7669973</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>301838796</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>8954175</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>728151627</v>
       </c>
       <c r="D71" t="n">
+        <v>1271623696</v>
+      </c>
+      <c r="E71" t="n">
         <v>20454366</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>916063835</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>9369069</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>7882216</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>308720120</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>9134090</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>737557995</v>
       </c>
       <c r="D72" t="n">
+        <v>1291314146</v>
+      </c>
+      <c r="E72" t="n">
         <v>20484213</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>928349862</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>9492320</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>8151368</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>315537116</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>9299267</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>747511201</v>
       </c>
       <c r="D73" t="n">
+        <v>1309036983</v>
+      </c>
+      <c r="E73" t="n">
         <v>20530332</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>940239082</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>9589674</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>8445661</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>320765553</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>9466681</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>756615406</v>
       </c>
       <c r="D74" t="n">
+        <v>1325490735</v>
+      </c>
+      <c r="E74" t="n">
         <v>20651194</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>951815787</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>9718526</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>8712100</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>324967012</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>9626116</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>765904215</v>
       </c>
       <c r="D75" t="n">
+        <v>1341441236</v>
+      </c>
+      <c r="E75" t="n">
         <v>20763804</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>964377549</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>9833080</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>8953792</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>327729686</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>9783325</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>776373106</v>
       </c>
       <c r="D76" t="n">
+        <v>1357137822</v>
+      </c>
+      <c r="E76" t="n">
         <v>21097891</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>976650841</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>10057635</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>9123995</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>330248485</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>9958975</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>788232827</v>
       </c>
       <c r="D77" t="n">
+        <v>1373393873</v>
+      </c>
+      <c r="E77" t="n">
         <v>21744196</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>988495272</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>10253819</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>9217795</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>333532799</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>10149992</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>801532636</v>
       </c>
       <c r="D78" t="n">
+        <v>1395970758</v>
+      </c>
+      <c r="E78" t="n">
         <v>22236302</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>1005174600</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>10494093</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>9269205</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>338435116</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>10361442</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>147064334788</v>
       </c>
       <c r="D79" t="n">
+        <v>270207465805</v>
+      </c>
+      <c r="E79" t="n">
         <v>3221515014</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>194364721511</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>1677388152</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>1273838764</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>68162957490</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>1507044874</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>816663217</v>
       </c>
       <c r="D80" t="n">
+        <v>1419896219</v>
+      </c>
+      <c r="E80" t="n">
         <v>23056220</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>1023237752</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>10722868</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>9346715</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>342967686</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>10564978</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>829042309</v>
       </c>
       <c r="D81" t="n">
+        <v>1441682216</v>
+      </c>
+      <c r="E81" t="n">
         <v>23577168</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>1039545127</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>10901971</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>9504161</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>347408270</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>10745519</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>841124944</v>
       </c>
       <c r="D82" t="n">
+        <v>1462506421</v>
+      </c>
+      <c r="E82" t="n">
         <v>23906941</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1054532943</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>11183393</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>9727903</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>352212638</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>10942603</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>851655422</v>
       </c>
       <c r="D83" t="n">
+        <v>1479014096</v>
+      </c>
+      <c r="E83" t="n">
         <v>24017327</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>1066361367</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>11390466</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>9956694</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>356187426</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>11100816</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>861743489</v>
       </c>
       <c r="D84" t="n">
+        <v>1497886060</v>
+      </c>
+      <c r="E84" t="n">
         <v>24106259</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>1079437724</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>11630540</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>10235744</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>361188822</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>11286971</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>870980757</v>
       </c>
       <c r="D85" t="n">
+        <v>1517574507</v>
+      </c>
+      <c r="E85" t="n">
         <v>24272355</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>1092621377</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>11771391</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>10535742</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>366939964</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>11433678</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>880802135</v>
       </c>
       <c r="D86" t="n">
+        <v>1538113748</v>
+      </c>
+      <c r="E86" t="n">
         <v>24507393</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>1107726574</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>11888849</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>10866692</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>371523884</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>11600356</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>889510127</v>
       </c>
       <c r="D87" t="n">
+        <v>1556234761</v>
+      </c>
+      <c r="E87" t="n">
         <v>24650245</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>1121610769</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>12005371</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>11170215</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>375020844</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>11777317</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>898551930</v>
       </c>
       <c r="D88" t="n">
+        <v>1573129463</v>
+      </c>
+      <c r="E88" t="n">
         <v>24980071</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>1135376766</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>12156618</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>11427529</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>377249300</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>11939179</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>908350723</v>
       </c>
       <c r="D89" t="n">
+        <v>1592315332</v>
+      </c>
+      <c r="E89" t="n">
         <v>25439284</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>1149880184</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>12390777</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>11587718</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>380925892</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>12091477</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>919942687</v>
       </c>
       <c r="D90" t="n">
+        <v>1611047294</v>
+      </c>
+      <c r="E90" t="n">
         <v>26113593</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1161822476</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>12604428</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>11680417</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>386549724</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>12276656</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>932508702</v>
       </c>
       <c r="D91" t="n">
+        <v>1633514580</v>
+      </c>
+      <c r="E91" t="n">
         <v>26655982</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>1176740986</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>12879498</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>11774133</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>392981655</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>12482326</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>304629546018</v>
       </c>
       <c r="D92" t="n">
+        <v>558737846307</v>
+      </c>
+      <c r="E92" t="n">
         <v>6738312866</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>401938337067</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>3496302474</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>2675491191</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>140737071085</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>3152331624</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>946154207</v>
       </c>
       <c r="D93" t="n">
+        <v>1656765299</v>
+      </c>
+      <c r="E93" t="n">
         <v>27334661</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1193501410</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>13122036</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>11876142</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>398242743</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>12688307</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>958166620</v>
       </c>
       <c r="D94" t="n">
+        <v>1678456423</v>
+      </c>
+      <c r="E94" t="n">
         <v>27800443</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1208788692</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>13413169</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>12027059</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>403554878</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>12872182</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>969242261</v>
       </c>
       <c r="D95" t="n">
+        <v>1698274942</v>
+      </c>
+      <c r="E95" t="n">
         <v>28241700</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>1221533733</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>13604415</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>12253222</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>409583820</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>13058052</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>977724176</v>
       </c>
       <c r="D96" t="n">
+        <v>1714320183</v>
+      </c>
+      <c r="E96" t="n">
         <v>28277901</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1232305461</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>13738600</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>12538119</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>414248452</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>13211650</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>986283890</v>
       </c>
       <c r="D97" t="n">
+        <v>1731803803</v>
+      </c>
+      <c r="E97" t="n">
         <v>28342241</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1243077601</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>13931405</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>12870353</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>420197860</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>13384343</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>994974846</v>
       </c>
       <c r="D98" t="n">
+        <v>1748616324</v>
+      </c>
+      <c r="E98" t="n">
         <v>28745102</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>1253029125</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>14061580</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>13181759</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>426049737</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>13549021</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>1004185874</v>
       </c>
       <c r="D99" t="n">
+        <v>1765467168</v>
+      </c>
+      <c r="E99" t="n">
         <v>29224851</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>1263951588</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>14184003</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>13552865</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>430846960</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>13706901</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>1012681365</v>
       </c>
       <c r="D100" t="n">
+        <v>1781672434</v>
+      </c>
+      <c r="E100" t="n">
         <v>29645666</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>1275282656</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>14313638</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>13878155</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>434700811</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>13851508</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>1021709717</v>
       </c>
       <c r="D101" t="n">
+        <v>1798885062</v>
+      </c>
+      <c r="E101" t="n">
         <v>30132063</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1288148694</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>14447375</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>14146761</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>438002851</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>14007318</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>1032293097</v>
       </c>
       <c r="D102" t="n">
+        <v>1818374557</v>
+      </c>
+      <c r="E102" t="n">
         <v>30449027</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1302233658</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>14693959</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>14300299</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>442539832</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>14157782</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>1043214247</v>
       </c>
       <c r="D103" t="n">
+        <v>1836971681</v>
+      </c>
+      <c r="E103" t="n">
         <v>31082716</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>1315733103</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>14891265</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>14440520</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>446473454</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>14350623</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>1056127012</v>
       </c>
       <c r="D104" t="n">
+        <v>1858457804</v>
+      </c>
+      <c r="E104" t="n">
         <v>31670320</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>1331054550</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>15174851</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>14509836</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>451509593</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>14538654</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>621261849348</v>
       </c>
       <c r="D105" t="n">
+        <v>1138563758294</v>
+      </c>
+      <c r="E105" t="n">
         <v>13827572423</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>819005314405</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>7162181244</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>5510557472</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>286590093161</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>6468039589</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>1070667085</v>
       </c>
       <c r="D106" t="n">
+        <v>1881613897</v>
+      </c>
+      <c r="E106" t="n">
         <v>32373552</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>1346723788</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>15415564</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>14588441</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>457786296</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>14726256</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>1082150841</v>
       </c>
       <c r="D107" t="n">
+        <v>1901096355</v>
+      </c>
+      <c r="E107" t="n">
         <v>32913047</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1359394730</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>15677728</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>14743500</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>463469937</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>14897413</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>1094105037</v>
       </c>
       <c r="D108" t="n">
+        <v>1921733107</v>
+      </c>
+      <c r="E108" t="n">
         <v>33496089</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>1373732099</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>15910721</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>14904669</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>468601605</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>15087924</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>1104408682</v>
       </c>
       <c r="D109" t="n">
+        <v>1937576154</v>
+      </c>
+      <c r="E109" t="n">
         <v>33906757</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>1384993720</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>16100091</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>15253263</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>472088924</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>15233399</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>1114177480</v>
       </c>
       <c r="D110" t="n">
+        <v>1957108083</v>
+      </c>
+      <c r="E110" t="n">
         <v>33979850</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>1398104118</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>16298614</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>15607257</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>477731894</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>15386350</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>1123240860</v>
       </c>
       <c r="D111" t="n">
+        <v>1976896995</v>
+      </c>
+      <c r="E111" t="n">
         <v>34224797</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1410998788</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>16469290</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>15979086</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>483701508</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>15523526</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>1132506613</v>
       </c>
       <c r="D112" t="n">
+        <v>1996478288</v>
+      </c>
+      <c r="E112" t="n">
         <v>34356500</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1423962811</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>16625414</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>16355637</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>489474701</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>15703225</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>1140975050</v>
       </c>
       <c r="D113" t="n">
+        <v>2014784457</v>
+      </c>
+      <c r="E113" t="n">
         <v>34379890</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1437189318</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>16777064</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>16730425</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>493839410</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>15868350</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>1150049754</v>
       </c>
       <c r="D114" t="n">
+        <v>2031518924</v>
+      </c>
+      <c r="E114" t="n">
         <v>34578535</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1450087306</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>16900126</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>17042433</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>496887148</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>16023376</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>1160508336</v>
       </c>
       <c r="D115" t="n">
+        <v>2051309242</v>
+      </c>
+      <c r="E115" t="n">
         <v>34805886</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>1466156365</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>17191052</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>17310301</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>499669245</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>16176393</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>1172779766</v>
       </c>
       <c r="D116" t="n">
+        <v>2071723146</v>
+      </c>
+      <c r="E116" t="n">
         <v>35394141</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1481894099</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>17399686</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>17432752</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>503247078</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>16355390</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>1186924834</v>
       </c>
       <c r="D117" t="n">
+        <v>2095066642</v>
+      </c>
+      <c r="E117" t="n">
         <v>36072052</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>1499563577</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>17671182</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>17537161</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>507679795</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>16542875</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>1256056193034</v>
       </c>
       <c r="D118" t="n">
+        <v>2300964421878</v>
+      </c>
+      <c r="E118" t="n">
         <v>28065625942</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1655043429529</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>14522799020</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>11214599869</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>578994363863</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>13123603655</v>
       </c>
     </row>
